--- a/Proyectos/2015/12/P1377 - RNCFAC, Karla Anguiano_MO/Cierre/Encuesta de_satisfacción.xlsx
+++ b/Proyectos/2015/12/P1377 - RNCFAC, Karla Anguiano_MO/Cierre/Encuesta de_satisfacción.xlsx
@@ -187,7 +187,7 @@
     <t>Adriana Jaramillo</t>
   </si>
   <si>
-    <t>Diego Pafredes</t>
+    <t>Diego Paredes</t>
   </si>
 </sst>
 </file>
@@ -16798,7 +16798,7 @@
     <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="str">
         <f>'Inf. Gral.'!C5</f>
-        <v>Diego Pafredes</v>
+        <v>Diego Paredes</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
